--- a/po_analysis_by_asin/B0D8WH39QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WH39QJ_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>16</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>192</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>112</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>32</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>128</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>464</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>256</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>336</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>640</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>208</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>288</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1056</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>656</v>

--- a/po_analysis_by_asin/B0D8WH39QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WH39QJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,313 @@
       </c>
       <c r="B5" t="n">
         <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-133.5700279743517</v>
+      </c>
+      <c r="D2" t="n">
+        <v>317.3979416077502</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>107</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-123.8732781389888</v>
+      </c>
+      <c r="D3" t="n">
+        <v>354.1347296291844</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>127</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-98.84325266268957</v>
+      </c>
+      <c r="D4" t="n">
+        <v>330.6341736856485</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>147</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-88.23342132810231</v>
+      </c>
+      <c r="D5" t="n">
+        <v>358.8846980453137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>168</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-57.94393930528148</v>
+      </c>
+      <c r="D6" t="n">
+        <v>384.832129021496</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>188</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-56.31349919330584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>413.6689129929982</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.993894224750538</v>
+      </c>
+      <c r="D8" t="n">
+        <v>441.2317411006823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>228</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.330933838025009</v>
+      </c>
+      <c r="D9" t="n">
+        <v>444.6385717943772</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.25300074221975</v>
+      </c>
+      <c r="D10" t="n">
+        <v>480.4806326040288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>329</v>
+      </c>
+      <c r="C11" t="n">
+        <v>102.1399993988326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>533.2430215000944</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>369</v>
+      </c>
+      <c r="C12" t="n">
+        <v>143.3458093666607</v>
+      </c>
+      <c r="D12" t="n">
+        <v>574.7170930668999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>389</v>
+      </c>
+      <c r="C13" t="n">
+        <v>165.803955793214</v>
+      </c>
+      <c r="D13" t="n">
+        <v>613.3825905087509</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>409</v>
+      </c>
+      <c r="C14" t="n">
+        <v>184.9450566737841</v>
+      </c>
+      <c r="D14" t="n">
+        <v>635.0451747205949</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>429</v>
+      </c>
+      <c r="C15" t="n">
+        <v>210.6434867499835</v>
+      </c>
+      <c r="D15" t="n">
+        <v>642.6080624430505</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>450</v>
+      </c>
+      <c r="C16" t="n">
+        <v>226.6576978826955</v>
+      </c>
+      <c r="D16" t="n">
+        <v>680.8102832295194</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>470</v>
+      </c>
+      <c r="C17" t="n">
+        <v>230.0480007900755</v>
+      </c>
+      <c r="D17" t="n">
+        <v>690.5837396814924</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>490</v>
+      </c>
+      <c r="C18" t="n">
+        <v>258.2105187049225</v>
+      </c>
+      <c r="D18" t="n">
+        <v>713.8298802014922</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>510</v>
+      </c>
+      <c r="C19" t="n">
+        <v>295.6340102407407</v>
+      </c>
+      <c r="D19" t="n">
+        <v>726.0535264217915</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>530</v>
+      </c>
+      <c r="C20" t="n">
+        <v>298.6876042698062</v>
+      </c>
+      <c r="D20" t="n">
+        <v>755.3116167262162</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D8WH39QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WH39QJ_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>87</v>
       </c>
-      <c r="C2" t="n">
-        <v>-133.5700279743517</v>
-      </c>
-      <c r="D2" t="n">
-        <v>317.3979416077502</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>107</v>
       </c>
-      <c r="C3" t="n">
-        <v>-123.8732781389888</v>
-      </c>
-      <c r="D3" t="n">
-        <v>354.1347296291844</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>127</v>
       </c>
-      <c r="C4" t="n">
-        <v>-98.84325266268957</v>
-      </c>
-      <c r="D4" t="n">
-        <v>330.6341736856485</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>147</v>
       </c>
-      <c r="C5" t="n">
-        <v>-88.23342132810231</v>
-      </c>
-      <c r="D5" t="n">
-        <v>358.8846980453137</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>168</v>
       </c>
-      <c r="C6" t="n">
-        <v>-57.94393930528148</v>
-      </c>
-      <c r="D6" t="n">
-        <v>384.832129021496</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>188</v>
       </c>
-      <c r="C7" t="n">
-        <v>-56.31349919330584</v>
-      </c>
-      <c r="D7" t="n">
-        <v>413.6689129929982</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>208</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.993894224750538</v>
-      </c>
-      <c r="D8" t="n">
-        <v>441.2317411006823</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>228</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.330933838025009</v>
-      </c>
-      <c r="D9" t="n">
-        <v>444.6385717943772</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>248</v>
       </c>
-      <c r="C10" t="n">
-        <v>34.25300074221975</v>
-      </c>
-      <c r="D10" t="n">
-        <v>480.4806326040288</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>329</v>
       </c>
-      <c r="C11" t="n">
-        <v>102.1399993988326</v>
-      </c>
-      <c r="D11" t="n">
-        <v>533.2430215000944</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>369</v>
       </c>
-      <c r="C12" t="n">
-        <v>143.3458093666607</v>
-      </c>
-      <c r="D12" t="n">
-        <v>574.7170930668999</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>389</v>
       </c>
-      <c r="C13" t="n">
-        <v>165.803955793214</v>
-      </c>
-      <c r="D13" t="n">
-        <v>613.3825905087509</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>409</v>
       </c>
-      <c r="C14" t="n">
-        <v>184.9450566737841</v>
-      </c>
-      <c r="D14" t="n">
-        <v>635.0451747205949</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>429</v>
       </c>
-      <c r="C15" t="n">
-        <v>210.6434867499835</v>
-      </c>
-      <c r="D15" t="n">
-        <v>642.6080624430505</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>450</v>
       </c>
-      <c r="C16" t="n">
-        <v>226.6576978826955</v>
-      </c>
-      <c r="D16" t="n">
-        <v>680.8102832295194</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -860,12 +760,6 @@
       <c r="B17" t="n">
         <v>470</v>
       </c>
-      <c r="C17" t="n">
-        <v>230.0480007900755</v>
-      </c>
-      <c r="D17" t="n">
-        <v>690.5837396814924</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -874,12 +768,6 @@
       <c r="B18" t="n">
         <v>490</v>
       </c>
-      <c r="C18" t="n">
-        <v>258.2105187049225</v>
-      </c>
-      <c r="D18" t="n">
-        <v>713.8298802014922</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -888,12 +776,6 @@
       <c r="B19" t="n">
         <v>510</v>
       </c>
-      <c r="C19" t="n">
-        <v>295.6340102407407</v>
-      </c>
-      <c r="D19" t="n">
-        <v>726.0535264217915</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -901,12 +783,6 @@
       </c>
       <c r="B20" t="n">
         <v>530</v>
-      </c>
-      <c r="C20" t="n">
-        <v>298.6876042698062</v>
-      </c>
-      <c r="D20" t="n">
-        <v>755.3116167262162</v>
       </c>
     </row>
   </sheetData>
